--- a/Data_Wisudawan_Final.xlsx
+++ b/Data_Wisudawan_Final.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data Wisudawan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rata-rata IPK Prodi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +437,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>NIM</t>
+          <t>nim</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nama Mahasiswa</t>
+          <t>nama mahasiswa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Program Studi</t>
+          <t>program studi</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>IPK</t>
+          <t>ipk</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lama Studi (Semester)</t>
+          <t>lama studi (semester)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tahun wisuda</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Grade</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Predikat</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tahun Wisuda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK Prodi</t>
         </is>
       </c>
     </row>
@@ -495,18 +506,24 @@
       <c r="E2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>2025</v>
+      <c r="I2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="3">
@@ -529,18 +546,24 @@
       <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>2025</v>
+      <c r="I3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="4">
@@ -563,18 +586,24 @@
       <c r="E4" t="n">
         <v>9</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>2025</v>
+      <c r="I4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="5">
@@ -597,18 +626,24 @@
       <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>2025</v>
+      <c r="I5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="6">
@@ -631,18 +666,24 @@
       <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>2025</v>
+      <c r="I6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="7">
@@ -665,18 +706,24 @@
       <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>2025</v>
+      <c r="I7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="8">
@@ -699,18 +746,24 @@
       <c r="E8" t="n">
         <v>8</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>2025</v>
+      <c r="I8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="9">
@@ -733,18 +786,24 @@
       <c r="E9" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>2025</v>
+      <c r="I9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="10">
@@ -767,18 +826,24 @@
       <c r="E10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>2025</v>
+      <c r="I10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="11">
@@ -801,18 +866,24 @@
       <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>2025</v>
+      <c r="I11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="12">
@@ -835,18 +906,24 @@
       <c r="E12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>2025</v>
+      <c r="I12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="13">
@@ -869,18 +946,24 @@
       <c r="E13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>2025</v>
+      <c r="I13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="14">
@@ -903,18 +986,24 @@
       <c r="E14" t="n">
         <v>10</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>2025</v>
+      <c r="I14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="15">
@@ -937,18 +1026,24 @@
       <c r="E15" t="n">
         <v>10</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>2025</v>
+      <c r="I15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -971,18 +1066,24 @@
       <c r="E16" t="n">
         <v>8</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>2025</v>
+      <c r="I16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="17">
@@ -1005,18 +1106,24 @@
       <c r="E17" t="n">
         <v>9</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>2025</v>
+      <c r="I17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="18">
@@ -1039,18 +1146,24 @@
       <c r="E18" t="n">
         <v>6</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>2025</v>
+      <c r="I18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="19">
@@ -1073,18 +1186,24 @@
       <c r="E19" t="n">
         <v>10</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>2025</v>
+      <c r="I19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="20">
@@ -1107,18 +1226,24 @@
       <c r="E20" t="n">
         <v>8</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>2025</v>
+      <c r="I20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="21">
@@ -1141,18 +1266,24 @@
       <c r="E21" t="n">
         <v>8</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>2025</v>
+      <c r="I21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="22">
@@ -1175,18 +1306,24 @@
       <c r="E22" t="n">
         <v>8</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>2025</v>
+      <c r="I22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="23">
@@ -1209,18 +1346,24 @@
       <c r="E23" t="n">
         <v>9</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>2025</v>
+      <c r="I23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="24">
@@ -1243,18 +1386,24 @@
       <c r="E24" t="n">
         <v>7</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>2025</v>
+      <c r="I24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="25">
@@ -1277,18 +1426,24 @@
       <c r="E25" t="n">
         <v>9</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>2025</v>
+      <c r="I25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="26">
@@ -1311,18 +1466,24 @@
       <c r="E26" t="n">
         <v>10</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>2025</v>
+      <c r="I26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="27">
@@ -1345,18 +1506,24 @@
       <c r="E27" t="n">
         <v>10</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>2025</v>
+      <c r="I27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="28">
@@ -1379,18 +1546,24 @@
       <c r="E28" t="n">
         <v>9</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>2025</v>
+      <c r="I28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="29">
@@ -1413,18 +1586,24 @@
       <c r="E29" t="n">
         <v>8</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>2025</v>
+      <c r="I29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="30">
@@ -1447,18 +1626,24 @@
       <c r="E30" t="n">
         <v>9</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>2025</v>
+      <c r="I30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="31">
@@ -1481,18 +1666,24 @@
       <c r="E31" t="n">
         <v>8</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>2025</v>
+      <c r="I31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="32">
@@ -1515,18 +1706,24 @@
       <c r="E32" t="n">
         <v>7</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>2025</v>
+      <c r="I32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="33">
@@ -1549,18 +1746,24 @@
       <c r="E33" t="n">
         <v>9</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>2025</v>
+      <c r="I33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="34">
@@ -1583,18 +1786,24 @@
       <c r="E34" t="n">
         <v>8</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>2025</v>
+      <c r="I34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="35">
@@ -1617,18 +1826,24 @@
       <c r="E35" t="n">
         <v>10</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>2025</v>
+      <c r="I35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="36">
@@ -1651,18 +1866,24 @@
       <c r="E36" t="n">
         <v>9</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>2025</v>
+      <c r="I36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="37">
@@ -1685,18 +1906,24 @@
       <c r="E37" t="n">
         <v>8</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>2025</v>
+      <c r="I37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="38">
@@ -1719,18 +1946,24 @@
       <c r="E38" t="n">
         <v>7</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>2025</v>
+      <c r="I38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="39">
@@ -1753,18 +1986,24 @@
       <c r="E39" t="n">
         <v>6</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>2025</v>
+      <c r="I39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="40">
@@ -1787,18 +2026,24 @@
       <c r="E40" t="n">
         <v>10</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>2025</v>
+      <c r="I40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="41">
@@ -1821,18 +2066,24 @@
       <c r="E41" t="n">
         <v>9</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>2025</v>
+      <c r="I41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="42">
@@ -1855,18 +2106,24 @@
       <c r="E42" t="n">
         <v>9</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>2025</v>
+      <c r="I42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="43">
@@ -1889,18 +2146,24 @@
       <c r="E43" t="n">
         <v>10</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>2025</v>
+      <c r="I43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="44">
@@ -1923,18 +2186,24 @@
       <c r="E44" t="n">
         <v>6</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>2025</v>
+      <c r="I44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="45">
@@ -1957,18 +2226,24 @@
       <c r="E45" t="n">
         <v>8</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>2025</v>
+      <c r="I45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="46">
@@ -1991,18 +2266,24 @@
       <c r="E46" t="n">
         <v>10</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>2025</v>
+      <c r="I46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="47">
@@ -2025,18 +2306,24 @@
       <c r="E47" t="n">
         <v>9</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>2025</v>
+      <c r="I47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="48">
@@ -2059,18 +2346,24 @@
       <c r="E48" t="n">
         <v>9</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>2025</v>
+      <c r="I48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="49">
@@ -2093,18 +2386,24 @@
       <c r="E49" t="n">
         <v>9</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>2025</v>
+      <c r="I49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="50">
@@ -2127,18 +2426,24 @@
       <c r="E50" t="n">
         <v>10</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>2025</v>
+      <c r="I50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="51">
@@ -2161,18 +2466,24 @@
       <c r="E51" t="n">
         <v>9</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>2025</v>
+      <c r="I51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="52">
@@ -2195,18 +2506,24 @@
       <c r="E52" t="n">
         <v>10</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>2025</v>
+      <c r="I52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="53">
@@ -2229,18 +2546,24 @@
       <c r="E53" t="n">
         <v>8</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>2025</v>
+      <c r="I53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="54">
@@ -2263,18 +2586,24 @@
       <c r="E54" t="n">
         <v>10</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>2025</v>
+      <c r="I54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="55">
@@ -2297,18 +2626,24 @@
       <c r="E55" t="n">
         <v>8</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>2025</v>
+      <c r="I55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="56">
@@ -2331,18 +2666,24 @@
       <c r="E56" t="n">
         <v>8</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v>2025</v>
+      <c r="I56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="57">
@@ -2365,18 +2706,24 @@
       <c r="E57" t="n">
         <v>8</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>2025</v>
+      <c r="I57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="58">
@@ -2399,18 +2746,24 @@
       <c r="E58" t="n">
         <v>10</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v>2025</v>
+      <c r="I58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="59">
@@ -2433,18 +2786,24 @@
       <c r="E59" t="n">
         <v>9</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v>2025</v>
+      <c r="I59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="60">
@@ -2467,18 +2826,24 @@
       <c r="E60" t="n">
         <v>6</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>2025</v>
+      <c r="I60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="61">
@@ -2501,18 +2866,24 @@
       <c r="E61" t="n">
         <v>6</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v>2025</v>
+      <c r="I61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="62">
@@ -2535,18 +2906,24 @@
       <c r="E62" t="n">
         <v>9</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>2025</v>
+      <c r="I62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="63">
@@ -2569,18 +2946,24 @@
       <c r="E63" t="n">
         <v>9</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v>2025</v>
+      <c r="I63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="64">
@@ -2603,18 +2986,24 @@
       <c r="E64" t="n">
         <v>8</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>2025</v>
+      <c r="I64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="65">
@@ -2637,18 +3026,24 @@
       <c r="E65" t="n">
         <v>10</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>2025</v>
+      <c r="I65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="66">
@@ -2671,18 +3066,24 @@
       <c r="E66" t="n">
         <v>8</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>2025</v>
+      <c r="I66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="67">
@@ -2705,18 +3106,24 @@
       <c r="E67" t="n">
         <v>6</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>2025</v>
+      <c r="I67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="68">
@@ -2739,18 +3146,24 @@
       <c r="E68" t="n">
         <v>10</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>2025</v>
+      <c r="I68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="69">
@@ -2773,18 +3186,24 @@
       <c r="E69" t="n">
         <v>10</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>2025</v>
+      <c r="I69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="70">
@@ -2807,18 +3226,24 @@
       <c r="E70" t="n">
         <v>8</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v>2025</v>
+      <c r="I70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="71">
@@ -2841,18 +3266,24 @@
       <c r="E71" t="n">
         <v>8</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>2025</v>
+      <c r="I71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="72">
@@ -2875,18 +3306,24 @@
       <c r="E72" t="n">
         <v>9</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>2025</v>
+      <c r="I72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="73">
@@ -2909,18 +3346,24 @@
       <c r="E73" t="n">
         <v>9</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>2025</v>
+      <c r="I73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="74">
@@ -2943,18 +3386,24 @@
       <c r="E74" t="n">
         <v>8</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v>2025</v>
+      <c r="I74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="75">
@@ -2977,18 +3426,24 @@
       <c r="E75" t="n">
         <v>8</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>2025</v>
+      <c r="I75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="76">
@@ -3011,18 +3466,24 @@
       <c r="E76" t="n">
         <v>10</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v>2025</v>
+      <c r="I76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="77">
@@ -3045,18 +3506,24 @@
       <c r="E77" t="n">
         <v>7</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>2025</v>
+      <c r="I77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="78">
@@ -3079,18 +3546,24 @@
       <c r="E78" t="n">
         <v>6</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>2025</v>
+      <c r="I78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="79">
@@ -3113,18 +3586,24 @@
       <c r="E79" t="n">
         <v>10</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>2025</v>
+      <c r="I79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="80">
@@ -3147,18 +3626,24 @@
       <c r="E80" t="n">
         <v>10</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v>2025</v>
+      <c r="I80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="81">
@@ -3181,18 +3666,24 @@
       <c r="E81" t="n">
         <v>9</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v>2025</v>
+      <c r="I81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="82">
@@ -3215,18 +3706,24 @@
       <c r="E82" t="n">
         <v>10</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v>2025</v>
+      <c r="I82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="83">
@@ -3249,18 +3746,24 @@
       <c r="E83" t="n">
         <v>8</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v>2025</v>
+      <c r="I83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="84">
@@ -3283,18 +3786,24 @@
       <c r="E84" t="n">
         <v>6</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v>2025</v>
+      <c r="I84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="85">
@@ -3317,18 +3826,24 @@
       <c r="E85" t="n">
         <v>7</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v>2025</v>
+      <c r="I85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="86">
@@ -3351,18 +3866,24 @@
       <c r="E86" t="n">
         <v>8</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v>2025</v>
+      <c r="I86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="87">
@@ -3385,18 +3906,24 @@
       <c r="E87" t="n">
         <v>9</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v>2025</v>
+      <c r="I87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="88">
@@ -3419,18 +3946,24 @@
       <c r="E88" t="n">
         <v>6</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v>2025</v>
+      <c r="I88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="89">
@@ -3453,18 +3986,24 @@
       <c r="E89" t="n">
         <v>8</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v>2025</v>
+      <c r="I89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="90">
@@ -3487,18 +4026,24 @@
       <c r="E90" t="n">
         <v>8</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v>2025</v>
+      <c r="I90" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="91">
@@ -3521,18 +4066,24 @@
       <c r="E91" t="n">
         <v>7</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v>2025</v>
+      <c r="I91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="92">
@@ -3555,18 +4106,24 @@
       <c r="E92" t="n">
         <v>10</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H92" t="n">
-        <v>2025</v>
+      <c r="I92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="93">
@@ -3589,18 +4146,24 @@
       <c r="E93" t="n">
         <v>8</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v>2025</v>
+      <c r="I93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="94">
@@ -3623,18 +4186,24 @@
       <c r="E94" t="n">
         <v>8</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H94" t="n">
-        <v>2025</v>
+      <c r="I94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="95">
@@ -3657,18 +4226,24 @@
       <c r="E95" t="n">
         <v>10</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H95" t="n">
-        <v>2025</v>
+      <c r="I95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="96">
@@ -3691,18 +4266,24 @@
       <c r="E96" t="n">
         <v>9</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v>2025</v>
+      <c r="I96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="97">
@@ -3725,18 +4306,24 @@
       <c r="E97" t="n">
         <v>8</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v>2025</v>
+      <c r="I97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="98">
@@ -3759,18 +4346,24 @@
       <c r="E98" t="n">
         <v>9</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H98" t="n">
-        <v>2025</v>
+      <c r="I98" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="99">
@@ -3793,18 +4386,24 @@
       <c r="E99" t="n">
         <v>9</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H99" t="n">
-        <v>2025</v>
+      <c r="I99" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="100">
@@ -3827,18 +4426,24 @@
       <c r="E100" t="n">
         <v>8</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>2025</v>
+      <c r="I100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="101">
@@ -3861,18 +4466,24 @@
       <c r="E101" t="n">
         <v>7</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v>2025</v>
+      <c r="I101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="102">
@@ -3895,18 +4506,24 @@
       <c r="E102" t="n">
         <v>10</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H102" t="n">
-        <v>2025</v>
+      <c r="I102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="103">
@@ -3929,18 +4546,24 @@
       <c r="E103" t="n">
         <v>8</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>2025</v>
+      <c r="I103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="104">
@@ -3963,18 +4586,24 @@
       <c r="E104" t="n">
         <v>6</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H104" t="n">
-        <v>2025</v>
+      <c r="I104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="105">
@@ -3997,18 +4626,24 @@
       <c r="E105" t="n">
         <v>9</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H105" t="n">
-        <v>2025</v>
+      <c r="I105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="106">
@@ -4031,18 +4666,24 @@
       <c r="E106" t="n">
         <v>10</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H106" t="n">
-        <v>2025</v>
+      <c r="I106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="107">
@@ -4065,18 +4706,24 @@
       <c r="E107" t="n">
         <v>9</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H107" t="n">
-        <v>2025</v>
+      <c r="I107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="108">
@@ -4099,18 +4746,24 @@
       <c r="E108" t="n">
         <v>8</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H108" t="n">
-        <v>2025</v>
+      <c r="I108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="109">
@@ -4133,18 +4786,24 @@
       <c r="E109" t="n">
         <v>8</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>2025</v>
+      <c r="I109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="110">
@@ -4167,18 +4826,24 @@
       <c r="E110" t="n">
         <v>10</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H110" t="n">
-        <v>2025</v>
+      <c r="I110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="111">
@@ -4201,18 +4866,24 @@
       <c r="E111" t="n">
         <v>9</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>2025</v>
+      <c r="I111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="112">
@@ -4235,18 +4906,24 @@
       <c r="E112" t="n">
         <v>7</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H112" t="n">
-        <v>2025</v>
+      <c r="I112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="113">
@@ -4269,18 +4946,24 @@
       <c r="E113" t="n">
         <v>6</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H113" t="n">
-        <v>2025</v>
+      <c r="I113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="114">
@@ -4303,18 +4986,24 @@
       <c r="E114" t="n">
         <v>8</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H114" t="n">
-        <v>2025</v>
+      <c r="I114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="115">
@@ -4337,18 +5026,24 @@
       <c r="E115" t="n">
         <v>8</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H115" t="n">
-        <v>2025</v>
+      <c r="I115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="116">
@@ -4371,18 +5066,24 @@
       <c r="E116" t="n">
         <v>8</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H116" t="n">
-        <v>2025</v>
+      <c r="I116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="117">
@@ -4405,18 +5106,24 @@
       <c r="E117" t="n">
         <v>10</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H117" t="n">
-        <v>2025</v>
+      <c r="I117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="118">
@@ -4439,18 +5146,24 @@
       <c r="E118" t="n">
         <v>10</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H118" t="n">
-        <v>2025</v>
+      <c r="I118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="119">
@@ -4473,18 +5186,24 @@
       <c r="E119" t="n">
         <v>10</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H119" t="n">
-        <v>2025</v>
+      <c r="I119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="120">
@@ -4507,18 +5226,24 @@
       <c r="E120" t="n">
         <v>9</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H120" t="n">
-        <v>2025</v>
+      <c r="I120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="121">
@@ -4541,18 +5266,24 @@
       <c r="E121" t="n">
         <v>10</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H121" t="n">
-        <v>2025</v>
+      <c r="I121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="122">
@@ -4575,18 +5306,24 @@
       <c r="E122" t="n">
         <v>8</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H122" t="n">
-        <v>2025</v>
+      <c r="I122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="123">
@@ -4609,18 +5346,24 @@
       <c r="E123" t="n">
         <v>10</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H123" t="n">
-        <v>2025</v>
+      <c r="I123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="124">
@@ -4643,18 +5386,24 @@
       <c r="E124" t="n">
         <v>10</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H124" t="n">
-        <v>2025</v>
+      <c r="I124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="125">
@@ -4677,18 +5426,24 @@
       <c r="E125" t="n">
         <v>8</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H125" t="n">
-        <v>2025</v>
+      <c r="I125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="126">
@@ -4711,18 +5466,24 @@
       <c r="E126" t="n">
         <v>9</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H126" t="n">
-        <v>2025</v>
+      <c r="I126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="127">
@@ -4745,18 +5506,24 @@
       <c r="E127" t="n">
         <v>6</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H127" t="n">
-        <v>2025</v>
+      <c r="I127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="128">
@@ -4779,18 +5546,24 @@
       <c r="E128" t="n">
         <v>8</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H128" t="n">
-        <v>2025</v>
+      <c r="I128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="129">
@@ -4813,18 +5586,24 @@
       <c r="E129" t="n">
         <v>7</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H129" t="n">
-        <v>2025</v>
+      <c r="I129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="130">
@@ -4847,18 +5626,24 @@
       <c r="E130" t="n">
         <v>9</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H130" t="n">
-        <v>2025</v>
+      <c r="I130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="131">
@@ -4881,18 +5666,24 @@
       <c r="E131" t="n">
         <v>8</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H131" t="n">
-        <v>2025</v>
+      <c r="I131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="132">
@@ -4915,18 +5706,24 @@
       <c r="E132" t="n">
         <v>10</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H132" t="n">
-        <v>2025</v>
+      <c r="I132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="133">
@@ -4949,18 +5746,24 @@
       <c r="E133" t="n">
         <v>10</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H133" t="n">
-        <v>2025</v>
+      <c r="I133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="134">
@@ -4983,18 +5786,24 @@
       <c r="E134" t="n">
         <v>8</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H134" t="n">
-        <v>2025</v>
+      <c r="I134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="135">
@@ -5017,18 +5826,24 @@
       <c r="E135" t="n">
         <v>10</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H135" t="n">
-        <v>2025</v>
+      <c r="I135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="136">
@@ -5051,18 +5866,24 @@
       <c r="E136" t="n">
         <v>10</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H136" t="n">
-        <v>2025</v>
+      <c r="I136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="137">
@@ -5085,18 +5906,24 @@
       <c r="E137" t="n">
         <v>10</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H137" t="n">
-        <v>2025</v>
+      <c r="I137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="138">
@@ -5119,18 +5946,24 @@
       <c r="E138" t="n">
         <v>8</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H138" t="n">
-        <v>2025</v>
+      <c r="I138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="139">
@@ -5153,18 +5986,24 @@
       <c r="E139" t="n">
         <v>9</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H139" t="n">
-        <v>2025</v>
+      <c r="I139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="140">
@@ -5187,18 +6026,24 @@
       <c r="E140" t="n">
         <v>6</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H140" t="n">
-        <v>2025</v>
+      <c r="I140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="141">
@@ -5221,18 +6066,24 @@
       <c r="E141" t="n">
         <v>8</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H141" t="n">
-        <v>2025</v>
+      <c r="I141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="142">
@@ -5255,18 +6106,24 @@
       <c r="E142" t="n">
         <v>6</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H142" t="n">
-        <v>2025</v>
+      <c r="I142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="143">
@@ -5289,18 +6146,24 @@
       <c r="E143" t="n">
         <v>9</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H143" t="n">
-        <v>2025</v>
+      <c r="I143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="144">
@@ -5323,18 +6186,24 @@
       <c r="E144" t="n">
         <v>8</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H144" t="n">
-        <v>2025</v>
+      <c r="I144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="145">
@@ -5357,18 +6226,24 @@
       <c r="E145" t="n">
         <v>8</v>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H145" t="n">
-        <v>2025</v>
+      <c r="I145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="146">
@@ -5391,18 +6266,24 @@
       <c r="E146" t="n">
         <v>8</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H146" t="n">
-        <v>2025</v>
+      <c r="I146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="147">
@@ -5425,18 +6306,24 @@
       <c r="E147" t="n">
         <v>8</v>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H147" t="n">
-        <v>2025</v>
+      <c r="I147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="148">
@@ -5459,18 +6346,24 @@
       <c r="E148" t="n">
         <v>9</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H148" t="n">
-        <v>2025</v>
+      <c r="I148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="149">
@@ -5493,18 +6386,24 @@
       <c r="E149" t="n">
         <v>9</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H149" t="n">
-        <v>2025</v>
+      <c r="I149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="150">
@@ -5527,18 +6426,24 @@
       <c r="E150" t="n">
         <v>8</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H150" t="n">
-        <v>2025</v>
+      <c r="I150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="151">
@@ -5561,18 +6466,24 @@
       <c r="E151" t="n">
         <v>8</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H151" t="n">
-        <v>2025</v>
+      <c r="I151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="152">
@@ -5595,18 +6506,24 @@
       <c r="E152" t="n">
         <v>7</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H152" t="n">
-        <v>2025</v>
+      <c r="I152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="153">
@@ -5629,18 +6546,24 @@
       <c r="E153" t="n">
         <v>8</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H153" t="n">
-        <v>2025</v>
+      <c r="I153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="154">
@@ -5663,18 +6586,24 @@
       <c r="E154" t="n">
         <v>8</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H154" t="n">
-        <v>2025</v>
+      <c r="I154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="155">
@@ -5697,18 +6626,24 @@
       <c r="E155" t="n">
         <v>10</v>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H155" t="n">
-        <v>2025</v>
+      <c r="I155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="156">
@@ -5731,18 +6666,24 @@
       <c r="E156" t="n">
         <v>6</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H156" t="n">
-        <v>2025</v>
+      <c r="I156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="157">
@@ -5765,18 +6706,24 @@
       <c r="E157" t="n">
         <v>9</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H157" t="n">
-        <v>2025</v>
+      <c r="I157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="158">
@@ -5799,18 +6746,24 @@
       <c r="E158" t="n">
         <v>7</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H158" t="n">
-        <v>2025</v>
+      <c r="I158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="159">
@@ -5833,18 +6786,24 @@
       <c r="E159" t="n">
         <v>9</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H159" t="n">
-        <v>2025</v>
+      <c r="I159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="160">
@@ -5867,18 +6826,24 @@
       <c r="E160" t="n">
         <v>6</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H160" t="n">
-        <v>2025</v>
+      <c r="I160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="161">
@@ -5901,18 +6866,24 @@
       <c r="E161" t="n">
         <v>6</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H161" t="n">
-        <v>2025</v>
+      <c r="I161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="162">
@@ -5935,18 +6906,24 @@
       <c r="E162" t="n">
         <v>8</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H162" t="n">
-        <v>2025</v>
+      <c r="I162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="163">
@@ -5969,18 +6946,24 @@
       <c r="E163" t="n">
         <v>6</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H163" t="n">
-        <v>2025</v>
+      <c r="I163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="164">
@@ -6003,18 +6986,24 @@
       <c r="E164" t="n">
         <v>9</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="F164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H164" t="n">
-        <v>2025</v>
+      <c r="I164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="165">
@@ -6037,18 +7026,24 @@
       <c r="E165" t="n">
         <v>9</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H165" t="n">
-        <v>2025</v>
+      <c r="I165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="166">
@@ -6071,18 +7066,24 @@
       <c r="E166" t="n">
         <v>9</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H166" t="n">
-        <v>2025</v>
+      <c r="I166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="167">
@@ -6105,18 +7106,24 @@
       <c r="E167" t="n">
         <v>10</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H167" t="n">
-        <v>2025</v>
+      <c r="I167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="168">
@@ -6139,18 +7146,24 @@
       <c r="E168" t="n">
         <v>10</v>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H168" t="n">
-        <v>2025</v>
+      <c r="I168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="169">
@@ -6173,18 +7186,24 @@
       <c r="E169" t="n">
         <v>8</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H169" t="n">
-        <v>2025</v>
+      <c r="I169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="170">
@@ -6207,18 +7226,24 @@
       <c r="E170" t="n">
         <v>8</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H170" t="n">
-        <v>2025</v>
+      <c r="I170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="171">
@@ -6241,18 +7266,24 @@
       <c r="E171" t="n">
         <v>9</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H171" t="n">
-        <v>2025</v>
+      <c r="I171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="172">
@@ -6275,18 +7306,24 @@
       <c r="E172" t="n">
         <v>8</v>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H172" t="n">
-        <v>2025</v>
+      <c r="I172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="173">
@@ -6309,18 +7346,24 @@
       <c r="E173" t="n">
         <v>9</v>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H173" t="n">
-        <v>2025</v>
+      <c r="I173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="174">
@@ -6343,18 +7386,24 @@
       <c r="E174" t="n">
         <v>8</v>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H174" t="n">
-        <v>2025</v>
+      <c r="I174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="175">
@@ -6377,18 +7426,24 @@
       <c r="E175" t="n">
         <v>7</v>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H175" t="n">
-        <v>2025</v>
+      <c r="I175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="176">
@@ -6411,18 +7466,24 @@
       <c r="E176" t="n">
         <v>9</v>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H176" t="n">
-        <v>2025</v>
+      <c r="I176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="177">
@@ -6445,18 +7506,24 @@
       <c r="E177" t="n">
         <v>6</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H177" t="n">
-        <v>2025</v>
+      <c r="I177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="178">
@@ -6479,18 +7546,24 @@
       <c r="E178" t="n">
         <v>9</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H178" t="n">
-        <v>2025</v>
+      <c r="I178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="179">
@@ -6513,18 +7586,24 @@
       <c r="E179" t="n">
         <v>7</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H179" t="n">
-        <v>2025</v>
+      <c r="I179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="180">
@@ -6547,18 +7626,24 @@
       <c r="E180" t="n">
         <v>8</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H180" t="n">
-        <v>2025</v>
+      <c r="I180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="181">
@@ -6581,18 +7666,24 @@
       <c r="E181" t="n">
         <v>6</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H181" t="n">
-        <v>2025</v>
+      <c r="I181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="182">
@@ -6615,18 +7706,24 @@
       <c r="E182" t="n">
         <v>7</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H182" t="n">
-        <v>2025</v>
+      <c r="I182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="183">
@@ -6649,18 +7746,24 @@
       <c r="E183" t="n">
         <v>9</v>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H183" t="n">
-        <v>2025</v>
+      <c r="I183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="184">
@@ -6683,18 +7786,24 @@
       <c r="E184" t="n">
         <v>6</v>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H184" t="n">
-        <v>2025</v>
+      <c r="I184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="185">
@@ -6717,18 +7826,24 @@
       <c r="E185" t="n">
         <v>9</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H185" t="n">
-        <v>2025</v>
+      <c r="I185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="186">
@@ -6751,18 +7866,24 @@
       <c r="E186" t="n">
         <v>7</v>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>Cumlaude</t>
         </is>
       </c>
-      <c r="H186" t="n">
-        <v>2025</v>
+      <c r="I186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row r="187">
@@ -6785,18 +7906,24 @@
       <c r="E187" t="n">
         <v>9</v>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H187" t="n">
-        <v>2025</v>
+      <c r="I187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="188">
@@ -6819,18 +7946,24 @@
       <c r="E188" t="n">
         <v>8</v>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H188" t="n">
-        <v>2025</v>
+      <c r="I188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="189">
@@ -6853,18 +7986,24 @@
       <c r="E189" t="n">
         <v>8</v>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H189" t="n">
-        <v>2025</v>
+      <c r="I189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="190">
@@ -6887,18 +8026,24 @@
       <c r="E190" t="n">
         <v>9</v>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H190" t="n">
-        <v>2025</v>
+      <c r="I190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="191">
@@ -6921,18 +8066,24 @@
       <c r="E191" t="n">
         <v>10</v>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H191" t="n">
-        <v>2025</v>
+      <c r="I191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="192">
@@ -6955,18 +8106,24 @@
       <c r="E192" t="n">
         <v>8</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="F192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H192" t="n">
-        <v>2025</v>
+      <c r="I192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="193">
@@ -6989,18 +8146,24 @@
       <c r="E193" t="n">
         <v>8</v>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H193" t="n">
-        <v>2025</v>
+      <c r="I193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="194">
@@ -7023,18 +8186,24 @@
       <c r="E194" t="n">
         <v>9</v>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H194" t="n">
-        <v>2025</v>
+      <c r="I194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="195">
@@ -7057,18 +8226,24 @@
       <c r="E195" t="n">
         <v>10</v>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H195" t="n">
-        <v>2025</v>
+      <c r="I195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="196">
@@ -7091,18 +8266,24 @@
       <c r="E196" t="n">
         <v>6</v>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H196" t="n">
-        <v>2025</v>
+      <c r="I196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="197">
@@ -7125,18 +8306,24 @@
       <c r="E197" t="n">
         <v>9</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H197" t="n">
-        <v>2025</v>
+      <c r="I197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="198">
@@ -7159,18 +8346,24 @@
       <c r="E198" t="n">
         <v>9</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H198" t="n">
-        <v>2025</v>
+      <c r="I198" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="199">
@@ -7193,18 +8386,24 @@
       <c r="E199" t="n">
         <v>8</v>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F199" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H199" t="n">
-        <v>2025</v>
+      <c r="I199" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="200">
@@ -7227,18 +8426,24 @@
       <c r="E200" t="n">
         <v>9</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H200" t="n">
-        <v>2025</v>
+      <c r="I200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="201">
@@ -7261,18 +8466,24 @@
       <c r="E201" t="n">
         <v>7</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H201" t="n">
-        <v>2025</v>
+      <c r="I201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="202">
@@ -7295,18 +8506,24 @@
       <c r="E202" t="n">
         <v>8</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H202" t="n">
-        <v>2025</v>
+      <c r="I202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="203">
@@ -7329,18 +8546,24 @@
       <c r="E203" t="n">
         <v>9</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="F203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H203" t="n">
-        <v>2025</v>
+      <c r="I203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="204">
@@ -7363,18 +8586,24 @@
       <c r="E204" t="n">
         <v>9</v>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>Cukup</t>
         </is>
       </c>
-      <c r="H204" t="n">
-        <v>2025</v>
+      <c r="I204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J204" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="205">
@@ -7397,18 +8626,24 @@
       <c r="E205" t="n">
         <v>8</v>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>2025</v>
+      <c r="I205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="206">
@@ -7431,18 +8666,24 @@
       <c r="E206" t="n">
         <v>9</v>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>Sangat Memuaskan</t>
         </is>
       </c>
-      <c r="H206" t="n">
-        <v>2025</v>
+      <c r="I206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="207">
@@ -7465,18 +8706,255 @@
       <c r="E207" t="n">
         <v>10</v>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>Memuaskan</t>
         </is>
       </c>
-      <c r="H207" t="n">
-        <v>2025</v>
+      <c r="I207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Program Studi</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Keterangan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D3 TE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D3 TI</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D3 TL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D3 TM</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D4 ALKS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D4 PPA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>D4 RKS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D4 TPPL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D4 TRET</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D4 TRKI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D4 TRM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D4 TRMK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D4 TRPL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rata-rata IPK per Prodi</t>
+        </is>
       </c>
     </row>
   </sheetData>
